--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E71024-E4C2-D343-94A8-5AFE802CB467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808F5C6-B426-49E4-B80E-5AFA25638407}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="系统软件开发" sheetId="7" r:id="rId1"/>
+    <sheet name="总预算" sheetId="7" r:id="rId1"/>
+    <sheet name="材料费预算" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -540,13 +533,788 @@
   <si>
     <t>谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统软件开发预算</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>详细参数</t>
+  </si>
+  <si>
+    <r>
+      <t>阵列卡：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LSI 9361-8i 2G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大容量缓存 支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Raid0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IW2200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准系统（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C612</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯片组双路主板，最大支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘位热插拔，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冗余电源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机架式）</t>
+    </r>
+  </si>
+  <si>
+    <t>网络：双口万兆光纤网卡/含多模光模块</t>
+  </si>
+  <si>
+    <t>总价(元)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备材料的购置及运送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置
+及运送费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标、键盘、机械硬盘等相关办公用品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>* 23.8英寸 AH-IPS广视角 127%sRGB广色域 1.5mm窄边框 
+全接口 24 快拆旋转升降支架 电脑显示器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOC
+I2490PXZ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>软件环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Ubuntu16.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作系统</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资质：认证：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ISO9001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国际质量管理体系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NVIDIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精英级合作伙伴（官网认证），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NVIDIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认证工程师；
+服务：厂家工程师三年免费质保服务；三年免费上门，终身软件维护服务。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>网络：双口千兆网卡（支持网络唤醒，网络冗余，负载均衡等网络高级特性，支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I/O AT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加速技术），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IPMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程管理口（支持远程开关机、温度监测、调整风扇转速、远程桌面、报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收集等）</t>
+    </r>
+  </si>
+  <si>
+    <t>存储盘：8* 希捷(Seagate)12TB 企业级硬盘
+型号：希捷银河Exos 7E8系列
+接口：SATA接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡：Nvidia V100
+显存：32G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存盘：4TB PCIE接口 数据中心企业级固态硬盘
+品牌：英特尔     型号：DC P4600 SSDPEDKE020T701
+性能描述：读3290MB/s  写1650MB/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统盘：240G 企业级固态硬盘（Raid1）品牌：英特尔     
+型号：S4510 SSDSC2KB240G801 
+性能描述：读560MB/s   写510MB/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存：2* 32GB R-ECC DDR4 2400MHz 服务器内存 支持高级内存纠错、内存镜像</t>
+  </si>
+  <si>
+    <t>CPU：2* 英特尔 XEON 4100/8核/16线程/2.1GHz-3.0GHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思腾合力
+IW4210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>软件环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:windows10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作系统</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>缓存盘：2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* 2TB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PCIE接口 数据中心企业级固态硬盘
+品牌：英特尔     型号：DC P4600 SSDPEDKE020T701
+性能描述：读3290MB/s  写1650MB/s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>系统盘：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2* 240G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业级固态硬盘（Raid1）
+品牌：英特尔     型号：S4510 SSDSC2KB240G801
+性能描述：读560MB/s   写510MB/s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内存：4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* 32GB R-ECC DDR4 2400MHz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器内存 支持高级内存纠错、内存镜像</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">英特尔 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XEON E5-2620V4/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/2.1GHz-3.0GHz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思腾合力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IR2200</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例图</t>
+  </si>
+  <si>
+    <t>总价(元)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +1448,68 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,8 +1534,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -866,14 +1700,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="8"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -968,6 +2015,129 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,142 +2153,131 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="着色 1 2" xfId="2" xr:uid="{D62EAD81-D9EC-491A-BBD7-170C9E84CF40}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1131,6 +2290,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DD6481-1CB8-4C78-9336-249DF3A43DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8092440" y="403860"/>
+          <a:ext cx="3131820" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1456,52 +2694,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="131" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="19.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,25 +2752,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="48"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="64" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -1544,46 +2782,46 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="67">
         <f>SUM(I3:I5)</f>
-        <v>18</v>
-      </c>
-      <c r="K3" s="58"/>
+        <v>19.5</v>
+      </c>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="54"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="29">
         <v>1.5</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" ref="I4:I20" si="0">G4*H4</f>
-        <v>6</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="54"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -1595,23 +2833,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>6</v>
@@ -1623,22 +2861,22 @@
         <f t="shared" si="0"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="67">
         <f>SUM(I6:I8)</f>
         <v>22.8</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="56"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -1650,19 +2888,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="56"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14">
         <v>5</v>
@@ -1674,20 +2912,20 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
     </row>
     <row r="9" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1704,22 +2942,22 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="38">
         <f>SUM(I9:I10)</f>
         <v>13.5</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="37">
         <f>SUM(J9:J19)</f>
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A10" s="40"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
@@ -1734,16 +2972,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="40"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="40"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16">
         <v>3</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
@@ -1758,19 +2996,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="37">
         <f>SUM(I11:I15)</f>
         <v>52.5</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="40"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="17" t="s">
         <v>45</v>
       </c>
@@ -1785,16 +3023,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="40"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="16">
         <v>5</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
@@ -1809,16 +3047,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="40"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="16">
         <v>6</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="30" t="s">
         <v>43</v>
       </c>
@@ -1833,16 +3071,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="40"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="16">
         <v>7</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="17" t="s">
         <v>38</v>
       </c>
@@ -1857,16 +3095,16 @@
         <f>G15*H15</f>
         <v>12</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="40"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="16">
         <v>8</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="21" t="s">
@@ -1883,19 +3121,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="37">
         <f>SUM(I16:I19)</f>
         <v>64</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A17" s="40"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="16">
         <v>9</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
@@ -1910,16 +3148,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A18" s="40"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="16">
         <v>10</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -1934,16 +3172,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A19" s="40"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="16">
         <v>11</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
@@ -1958,23 +3196,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="22">
         <v>1</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24">
         <v>3</v>
@@ -1986,22 +3224,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="46">
         <f>SUM(I20:I21)</f>
         <v>9</v>
       </c>
-      <c r="K20" s="73"/>
-    </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="80"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" ht="77.55" customHeight="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="22">
         <v>2</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="23" t="s">
         <v>27</v>
       </c>
@@ -2015,23 +3253,23 @@
         <f>G21*H21</f>
         <v>6</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" ht="37">
-      <c r="A22" s="37" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:11" s="20" customFormat="1" ht="35.4">
+      <c r="A22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="75" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="27" t="s">
         <v>40</v>
       </c>
@@ -2040,22 +3278,22 @@
       <c r="I22" s="19">
         <v>38.4</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="40">
         <f>SUM(I22:I25)</f>
-        <v>115.4</v>
-      </c>
-      <c r="K22" s="68"/>
-    </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="55">
-      <c r="A23" s="38"/>
-      <c r="B23" s="35"/>
+        <v>113.9</v>
+      </c>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="53.4">
+      <c r="A23" s="39"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="16">
         <v>2</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="25" t="s">
         <v>39</v>
       </c>
@@ -2064,38 +3302,38 @@
       <c r="I23" s="19">
         <v>27</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A24" s="38"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="16">
         <v>3</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="25"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28">
-        <v>25</v>
-      </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
+        <v>23.5</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="16">
         <v>4</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19">
         <v>25</v>
@@ -2107,26 +3345,26 @@
         <f>G25*H25</f>
         <v>25</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="56">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="47">
         <f>SUM(J3,J6,K9,J20,J22)</f>
         <v>295.20000000000005</v>
       </c>
-      <c r="K26" s="56"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4"/>
@@ -2302,6 +3540,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="J3:K5"/>
+    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="J16:J19"/>
@@ -2318,30 +3577,308 @@
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="J3:K5"/>
-    <mergeCell ref="J6:K8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656BFDB5-BAC8-4BB0-8CB4-B3D4455992F3}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="81" customWidth="1"/>
+    <col min="2" max="2" width="11" style="81" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="81" customWidth="1"/>
+    <col min="5" max="254" width="9" style="81" customWidth="1"/>
+    <col min="255" max="255" width="9" style="81" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="7.88671875" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="113" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+    </row>
+    <row r="2" spans="1:11" s="106" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="91">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="106" customFormat="1" ht="38.1" customHeight="1" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="91"/>
+    </row>
+    <row r="4" spans="1:11" s="106" customFormat="1" ht="63" customHeight="1" thickBot="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" s="106" customFormat="1" ht="46.05" customHeight="1" thickBot="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="91"/>
+    </row>
+    <row r="6" spans="1:11" s="106" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="91"/>
+    </row>
+    <row r="7" spans="1:11" s="106" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="91"/>
+    </row>
+    <row r="8" spans="1:11" s="106" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="91"/>
+    </row>
+    <row r="9" spans="1:11" s="106" customFormat="1" ht="60" customHeight="1" thickBot="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="91"/>
+    </row>
+    <row r="10" spans="1:11" s="106" customFormat="1" ht="57.9" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="91"/>
+    </row>
+    <row r="11" spans="1:11" s="106" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A11" s="108"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="91"/>
+    </row>
+    <row r="12" spans="1:11" ht="46.2" customHeight="1">
+      <c r="A12" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="102">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.2" customHeight="1">
+      <c r="A13" s="98"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="95"/>
+    </row>
+    <row r="14" spans="1:11" ht="54.6" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="95"/>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="95"/>
+    </row>
+    <row r="16" spans="1:11" ht="36" customHeight="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="95"/>
+    </row>
+    <row r="17" spans="1:4" ht="46.8">
+      <c r="A17" s="98"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="95"/>
+    </row>
+    <row r="18" spans="1:4" ht="45.6" customHeight="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="95"/>
+    </row>
+    <row r="19" spans="1:4" ht="49.2" customHeight="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="95"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" customHeight="1">
+      <c r="A20" s="98"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="95"/>
+    </row>
+    <row r="21" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A21" s="98"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="95"/>
+    </row>
+    <row r="22" spans="1:4" ht="69" customHeight="1">
+      <c r="A22" s="98"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="95"/>
+    </row>
+    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="91"/>
+    </row>
+    <row r="24" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+      <c r="A24" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="85">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+      <c r="A25" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="85">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+      <c r="A26" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="85">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A27" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="82">
+        <f>D2+D12+D24+D25+D26</f>
+        <v>235000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="D12:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808F5C6-B426-49E4-B80E-5AFA25638407}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860ECC0B-503B-4942-9798-9EA15106A0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
     <sheet name="材料费预算" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -267,22 +275,6 @@
   </si>
   <si>
     <t>HBase存储模式设计与实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常值、缺失值处理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于有向概率图模型的监测参数矫正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据可视化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,23 +428,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能控制可视化平台设计与开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井下压力监测仿真平台设计与开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现场调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采场充填可视化平台设计与开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -518,9 +498,6 @@
   </si>
   <si>
     <t>絮凝剂智能添加策略研发</t>
-  </si>
-  <si>
-    <t>稀释水添加量控制算法研发</t>
   </si>
   <si>
     <t>智能化精准控制与三维可视化系统</t>
@@ -1305,6 +1282,73 @@
   </si>
   <si>
     <t>总价(元)</t>
+  </si>
+  <si>
+    <t>数据矫正算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井上实时生产监控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀释水添加量控制算法研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搅拌均匀度识别算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井下管道安全管控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道堵塞、泄漏识别与预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井下管道三维可视化平台设计与开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道空气柱测算与可视化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于计算机图形学技术的膏体高度软测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采场充填评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采场充填管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪器管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采场充填可视化平台设计与开发</t>
+  </si>
+  <si>
+    <t>采场充填任务调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1920,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2015,6 +2059,174 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2024,21 +2236,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2060,22 +2260,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,190 +2272,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2692,54 +2745,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="48" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="19.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="A1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2752,25 +2805,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>19</v>
+      <c r="B3" s="78" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="36"/>
+      <c r="D3" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2782,22 +2835,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="82">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="65"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="36"/>
+      <c r="D4" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="71"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2805,23 +2858,23 @@
       <c r="H4" s="29">
         <v>1.5</v>
       </c>
-      <c r="I4" s="29">
-        <f t="shared" ref="I4:I20" si="0">G4*H4</f>
+      <c r="I4" s="33">
+        <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="58"/>
+      <c r="D5" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="72"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2829,54 +2882,54 @@
       <c r="H5" s="26">
         <v>2</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="58"/>
+      <c r="D6" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="72"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="14">
         <v>1.3</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="J6" s="67">
-        <f>SUM(I6:I8)</f>
-        <v>22.8</v>
-      </c>
-      <c r="K6" s="68"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="J6" s="82">
+        <f>SUM(I6:I9)</f>
+        <v>26.4</v>
+      </c>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="47"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="58"/>
+      <c r="D7" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="72"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2884,598 +2937,714 @@
       <c r="H7" s="14">
         <v>1.5</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="47"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="14">
+      <c r="G8" s="33">
         <v>5</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="33">
         <v>1.5</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A9" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19">
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
+      <c r="A9" s="81"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="12">
+        <v>4</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="26">
         <v>1.5</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="38">
-        <f>SUM(I9:I10)</f>
-        <v>13.5</v>
-      </c>
-      <c r="K9" s="37">
-        <f>SUM(J9:J19)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A10" s="37"/>
-      <c r="B10" s="51"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="16">
-        <v>2</v>
-      </c>
-      <c r="D10" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="17" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
-        <v>4</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="29">
+        <v>9</v>
+      </c>
+      <c r="H10" s="28">
+        <v>2</v>
+      </c>
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="91">
+        <f>SUM(I10:I16)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K10" s="93">
+        <f>SUM(J10:J26)</f>
+        <v>147.75</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="37"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="99"/>
       <c r="E11" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="I11" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J11" s="37">
-        <f>SUM(I11:I15)</f>
-        <v>52.5</v>
-      </c>
-      <c r="K11" s="37"/>
+        <v>6.4</v>
+      </c>
+      <c r="J11" s="63"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="37"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="16">
-        <v>4</v>
-      </c>
-      <c r="D12" s="49"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="99"/>
       <c r="E12" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="J12" s="63"/>
+      <c r="K12" s="95"/>
+    </row>
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A13" s="99"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31">
+        <v>4</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="J13" s="63"/>
+      <c r="K13" s="95"/>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A14" s="99"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="16">
+        <v>5</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31">
+        <v>12</v>
+      </c>
+      <c r="H14" s="31">
+        <v>2</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="95"/>
+    </row>
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A15" s="99"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="H12" s="28">
+      <c r="D15" s="99"/>
+      <c r="E15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
+        <v>4</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="95"/>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A16" s="99"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
+        <v>4</v>
+      </c>
+      <c r="H16" s="19">
         <v>2</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I16" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="95"/>
+    </row>
+    <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A17" s="99"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="16">
+        <v>8</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19">
+        <v>7</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J17" s="91">
+        <f>SUM(I17:I19)</f>
+        <v>38</v>
+      </c>
+      <c r="K17" s="95"/>
+    </row>
+    <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A18" s="99"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="16">
+        <v>9</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="32">
+        <v>6</v>
+      </c>
+      <c r="H18" s="32">
+        <v>2</v>
+      </c>
+      <c r="I18" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="37"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
+      <c r="J18" s="63"/>
+      <c r="K18" s="95"/>
+    </row>
+    <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A19" s="99"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="16">
+        <v>10</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="32">
         <v>6</v>
       </c>
-      <c r="H13" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="37"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="16">
-        <v>6</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31">
-        <v>3</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="29">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="37"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="16">
-        <v>7</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19">
-        <v>8</v>
-      </c>
-      <c r="H15" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="29">
-        <f>G15*H15</f>
-        <v>12</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="37"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
-        <v>6</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="H19" s="32">
         <v>2</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I19" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J16" s="37">
-        <f>SUM(I16:I19)</f>
-        <v>64</v>
-      </c>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A17" s="37"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="16">
-        <v>9</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19">
+      <c r="J19" s="64"/>
+      <c r="K19" s="95"/>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A20" s="34"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="16">
+        <v>11</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="32">
         <v>6</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H20" s="32">
         <v>2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I20" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A18" s="37"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="16">
-        <v>10</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19">
-        <v>8</v>
-      </c>
-      <c r="H18" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="I18" s="29">
+      <c r="J20" s="65">
+        <f>SUM(I20:I23)</f>
+        <v>30.4</v>
+      </c>
+      <c r="K20" s="95"/>
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A21" s="34"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="16">
+        <v>12</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="32">
+        <v>2</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="33">
         <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="95"/>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A22" s="34"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="16">
+        <v>13</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="32">
+        <v>6</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="65"/>
+      <c r="K22" s="95"/>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A23" s="34"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="16">
+        <v>14</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="32">
+        <v>2</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="95"/>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A24" s="34"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="16">
+        <v>15</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="J24" s="91">
+        <f>SUM(I24:I26)</f>
+        <v>3.75</v>
+      </c>
+      <c r="K24" s="95"/>
+    </row>
+    <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A25" s="34"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="16">
+        <v>16</v>
+      </c>
+      <c r="D25" s="99"/>
+      <c r="E25" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="95"/>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A26" s="34"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="16">
+        <v>17</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="33">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="97"/>
+    </row>
+    <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A19" s="37"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="16">
-        <v>11</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19">
-        <v>8</v>
-      </c>
-      <c r="H19" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="I19" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A20" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="98"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24">
+        <v>3</v>
+      </c>
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="29">
+        <f t="shared" ref="I4:I27" si="1">G27*H27</f>
+        <v>3</v>
+      </c>
+      <c r="J27" s="98">
+        <f>SUM(I27:I28)</f>
+        <v>9</v>
+      </c>
+      <c r="K27" s="98"/>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
+      <c r="A28" s="58"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="22">
+        <v>2</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="24">
+        <v>6</v>
+      </c>
+      <c r="H28" s="24">
+        <v>1</v>
+      </c>
+      <c r="I28" s="24">
+        <f>G28*H28</f>
+        <v>6</v>
+      </c>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="N28" s="20">
+        <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
+        <v>278.14999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
+      <c r="A29" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24">
+      <c r="E29" s="65"/>
+      <c r="F29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19">
+        <f>N28*0.149425</f>
+        <v>41.562563749999995</v>
+      </c>
+      <c r="J29" s="92">
+        <f>SUM(I29:I32)</f>
+        <v>117.06256375</v>
+      </c>
+      <c r="K29" s="93"/>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
+      <c r="A30" s="63"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19">
+        <v>27</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+    </row>
+    <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A31" s="63"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="H20" s="24">
+      <c r="D31" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="67"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28">
+        <v>23.5</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A32" s="64"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="16">
+        <v>4</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19">
+        <v>25</v>
+      </c>
+      <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="I20" s="29">
-        <f t="shared" si="0"/>
+      <c r="I32" s="19">
+        <f>G32*H32</f>
+        <v>25</v>
+      </c>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
+      <c r="A33" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="46">
-        <f>SUM(I20:I21)</f>
-        <v>9</v>
-      </c>
-      <c r="K20" s="46"/>
-    </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" ht="77.55" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="22">
-        <v>2</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="24">
-        <v>6</v>
-      </c>
-      <c r="H21" s="24">
-        <v>1</v>
-      </c>
-      <c r="I21" s="24">
-        <f>G21*H21</f>
-        <v>6</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" ht="35.4">
-      <c r="A22" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19">
-        <v>38.4</v>
-      </c>
-      <c r="J22" s="40">
-        <f>SUM(I22:I25)</f>
-        <v>113.9</v>
-      </c>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="53.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="16">
-        <v>2</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19">
-        <v>27</v>
-      </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A24" s="39"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="16">
-        <v>3</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28">
-        <v>23.5</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="16">
-        <v>4</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19">
-        <v>25</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <f>G25*H25</f>
-        <v>25</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="47">
-        <f>SUM(J3,J6,K9,J20,J22)</f>
-        <v>295.20000000000005</v>
-      </c>
-      <c r="K26" s="47"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1">
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1">
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="4:11">
-      <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="4:11">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="81">
+        <f>SUM(N28,J29)</f>
+        <v>395.21256374999996</v>
+      </c>
+      <c r="K33" s="81"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="4:11">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
+    <row r="35" spans="1:11" s="4" customFormat="1">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="4:11">
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="4:11">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="4:11">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="F38" s="4"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="4:11">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+    <row r="39" spans="1:11">
       <c r="F39" s="4"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="4:11">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="F40" s="4"/>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="4:11">
+    </row>
+    <row r="41" spans="1:11">
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="4"/>
@@ -3483,8 +3652,9 @@
       <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="4:11">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="4"/>
@@ -3493,7 +3663,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="4:11">
+    <row r="43" spans="1:11">
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="4"/>
@@ -3502,7 +3672,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="4:11">
+    <row r="44" spans="1:11">
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="4"/>
@@ -3511,7 +3681,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="1:11">
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="4"/>
@@ -3520,7 +3690,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="1:11">
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="4"/>
@@ -3529,54 +3699,121 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="1:11">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="5"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
+    <row r="48" spans="1:11">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="4:10">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="4:10">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="4:10">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="4:10">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="41">
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="J3:K5"/>
-    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="J6:K9"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J22:K25"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K9:K19"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3588,277 +3825,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656BFDB5-BAC8-4BB0-8CB4-B3D4455992F3}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="81" customWidth="1"/>
-    <col min="2" max="2" width="11" style="81" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" style="81" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="81" customWidth="1"/>
-    <col min="5" max="254" width="9" style="81" customWidth="1"/>
-    <col min="255" max="255" width="9" style="81" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="7.88671875" style="81"/>
+    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="11" style="35" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="35" customWidth="1"/>
+    <col min="5" max="254" width="9" style="35" customWidth="1"/>
+    <col min="255" max="255" width="9" style="35" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="7.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="113" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:11" s="53" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="109">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="38" customHeight="1" thickBot="1">
+      <c r="A3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="109"/>
+    </row>
+    <row r="4" spans="1:11" s="49" customFormat="1" ht="63" customHeight="1" thickBot="1">
+      <c r="A4" s="106"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="109"/>
+    </row>
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="46" customHeight="1" thickBot="1">
+      <c r="A5" s="106"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="109"/>
+    </row>
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="41" customHeight="1" thickBot="1">
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="109"/>
+    </row>
+    <row r="7" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A7" s="106"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="109"/>
+    </row>
+    <row r="8" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="109"/>
+    </row>
+    <row r="9" spans="1:11" s="49" customFormat="1" ht="60" customHeight="1" thickBot="1">
+      <c r="A9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="109"/>
+    </row>
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="58" customHeight="1" thickBot="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="109"/>
+    </row>
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A11" s="106"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="109"/>
+    </row>
+    <row r="12" spans="1:11" ht="46.25" customHeight="1">
+      <c r="A12" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="116">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.25" customHeight="1">
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="117"/>
+    </row>
+    <row r="14" spans="1:11" ht="54.5" customHeight="1">
+      <c r="A14" s="111"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="117"/>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1">
+      <c r="A15" s="111"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="117"/>
+    </row>
+    <row r="16" spans="1:11" ht="36" customHeight="1">
+      <c r="A16" s="111"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="117"/>
+    </row>
+    <row r="17" spans="1:4" ht="48">
+      <c r="A17" s="111"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="117"/>
+    </row>
+    <row r="18" spans="1:4" ht="45.5" customHeight="1">
+      <c r="A18" s="111"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="117"/>
+    </row>
+    <row r="19" spans="1:4" ht="49.25" customHeight="1">
+      <c r="A19" s="111"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="117"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.25" customHeight="1">
+      <c r="A20" s="111"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="117"/>
+    </row>
+    <row r="21" spans="1:4" ht="73.75" customHeight="1">
+      <c r="A21" s="111"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="117"/>
+    </row>
+    <row r="22" spans="1:4" ht="69" customHeight="1">
+      <c r="A22" s="111"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="117"/>
+    </row>
+    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A23" s="112"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="109"/>
+    </row>
+    <row r="24" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A24" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A25" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A26" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-    </row>
-    <row r="2" spans="1:11" s="106" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="91">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="106" customFormat="1" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="91"/>
-    </row>
-    <row r="4" spans="1:11" s="106" customFormat="1" ht="63" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="91"/>
-    </row>
-    <row r="5" spans="1:11" s="106" customFormat="1" ht="46.05" customHeight="1" thickBot="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="91"/>
-    </row>
-    <row r="6" spans="1:11" s="106" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="91"/>
-    </row>
-    <row r="7" spans="1:11" s="106" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="91"/>
-    </row>
-    <row r="8" spans="1:11" s="106" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="91"/>
-    </row>
-    <row r="9" spans="1:11" s="106" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="91"/>
-    </row>
-    <row r="10" spans="1:11" s="106" customFormat="1" ht="57.9" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="91"/>
-    </row>
-    <row r="11" spans="1:11" s="106" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="91"/>
-    </row>
-    <row r="12" spans="1:11" ht="46.2" customHeight="1">
-      <c r="A12" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="102">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="49.2" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="95"/>
-    </row>
-    <row r="14" spans="1:11" ht="54.6" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="95"/>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="95"/>
-    </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="95"/>
-    </row>
-    <row r="17" spans="1:4" ht="46.8">
-      <c r="A17" s="98"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="95"/>
-    </row>
-    <row r="18" spans="1:4" ht="45.6" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="95"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.2" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="95"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.2" customHeight="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="95"/>
-    </row>
-    <row r="21" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="95"/>
-    </row>
-    <row r="22" spans="1:4" ht="69" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="95"/>
-    </row>
-    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="91"/>
-    </row>
-    <row r="24" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A24" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="85">
+      <c r="B26" s="39"/>
+      <c r="C26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A25" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="85">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A26" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="85">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A27" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="82">
+    <row r="27" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
+      <c r="A27" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="36">
         <f>D2+D12+D24+D25+D26</f>
         <v>235000</v>
       </c>

--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860ECC0B-503B-4942-9798-9EA15106A0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29447210-968C-4E13-B878-AAD2B6063681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
     <sheet name="材料费预算" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -494,17 +486,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浓密机底流浓度控制算法研发</t>
-  </si>
-  <si>
-    <t>絮凝剂智能添加策略研发</t>
-  </si>
-  <si>
     <t>智能化精准控制与三维可视化系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥层压强控制算法研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1344,10 +1326,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>采场充填任务调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓密机底流浓度控制算法研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥层压强控制算法研发</t>
+  </si>
+  <si>
+    <t>絮凝剂智能添加策略研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>采场充填可视化平台设计与开发</t>
-  </si>
-  <si>
-    <t>采场充填任务调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2134,6 +2128,132 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,128 +2269,11 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,15 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2747,52 +2741,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="48" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="19.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2805,16 +2799,16 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="90" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
@@ -2823,7 +2817,7 @@
       <c r="D3" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2835,22 +2829,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="82">
+      <c r="J3" s="93">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="83"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="79"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2862,19 +2856,19 @@
         <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="79"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2886,14 +2880,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="89" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
@@ -2902,7 +2896,7 @@
       <c r="D6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2914,22 +2908,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="93">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="94"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="81"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2941,19 +2935,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="81"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2965,19 +2959,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="72"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="71"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2989,24 +2983,24 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="118" t="s">
-        <v>36</v>
+      <c r="B10" s="60" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>74</v>
+      <c r="D10" s="63" t="s">
+        <v>71</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
@@ -3019,24 +3013,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="66">
         <f>SUM(I10:I16)</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="57">
         <f>SUM(J10:J26)</f>
         <v>147.75</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="99"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="17" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
@@ -3049,18 +3043,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="95"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="99"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="17" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -3073,18 +3067,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="95"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="99"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31">
@@ -3097,18 +3091,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="95"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="99"/>
-      <c r="B14" s="120"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31">
@@ -3121,16 +3115,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="95"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="99"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="21" t="s">
         <v>31</v>
       </c>
@@ -3145,16 +3139,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="95"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="99"/>
-      <c r="B16" s="120"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="100"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -3169,20 +3163,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="99"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>77</v>
+      <c r="D17" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
@@ -3195,21 +3189,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J17" s="91">
+      <c r="J17" s="66">
         <f>SUM(I17:I19)</f>
         <v>38</v>
       </c>
-      <c r="K17" s="95"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="99"/>
-      <c r="B18" s="120"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="32">
@@ -3222,18 +3216,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="95"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="99"/>
-      <c r="B19" s="120"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="32">
@@ -3246,20 +3240,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="95"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A20" s="34"/>
-      <c r="B20" s="120"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>83</v>
+      <c r="D20" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="32">
@@ -3272,21 +3266,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="69">
         <f>SUM(I20:I23)</f>
         <v>30.4</v>
       </c>
-      <c r="K20" s="95"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A21" s="34"/>
-      <c r="B21" s="120"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="99"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="32">
@@ -3299,18 +3293,18 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="95"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A22" s="34"/>
-      <c r="B22" s="120"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="32">
@@ -3323,18 +3317,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="95"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A23" s="34"/>
-      <c r="B23" s="120"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="100"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="32">
@@ -3347,20 +3341,20 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="95"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A24" s="34"/>
-      <c r="B24" s="120"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>84</v>
+      <c r="D24" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="32">
@@ -3373,21 +3367,21 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="91">
+      <c r="J24" s="66">
         <f>SUM(I24:I26)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="95"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A25" s="34"/>
-      <c r="B25" s="120"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="32">
@@ -3400,18 +3394,18 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="95"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="119"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="100"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="32">
@@ -3424,23 +3418,23 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="97"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="98"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24">
         <v>3</v>
@@ -3449,25 +3443,25 @@
         <v>1</v>
       </c>
       <c r="I27" s="29">
-        <f t="shared" ref="I4:I27" si="1">G27*H27</f>
+        <f t="shared" ref="I27" si="1">G27*H27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="79">
         <f>SUM(I27:I28)</f>
         <v>9</v>
       </c>
-      <c r="K27" s="98"/>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="102"/>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.55" customHeight="1">
+      <c r="A28" s="100"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
@@ -3481,27 +3475,27 @@
         <f>G28*H28</f>
         <v>6</v>
       </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
       <c r="N28" s="20">
         <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
         <v>278.14999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:14" s="20" customFormat="1" ht="35.4">
+      <c r="A29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="101" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="27" t="s">
         <v>33</v>
       </c>
@@ -3511,22 +3505,22 @@
         <f>N28*0.149425</f>
         <v>41.562563749999995</v>
       </c>
-      <c r="J29" s="92">
+      <c r="J29" s="76">
         <f>SUM(I29:I32)</f>
         <v>117.06256375</v>
       </c>
-      <c r="K29" s="93"/>
-    </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A30" s="63"/>
-      <c r="B30" s="60"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" ht="53.4">
+      <c r="A30" s="67"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="65"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="25" t="s">
         <v>32</v>
       </c>
@@ -3535,38 +3529,38 @@
       <c r="I30" s="19">
         <v>27</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="63"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="25"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28">
         <v>23.5</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="64"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>25</v>
@@ -3578,26 +3572,26 @@
         <f>G32*H32</f>
         <v>25</v>
       </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="81">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="80">
         <f>SUM(N28,J29)</f>
         <v>395.21256374999996</v>
       </c>
-      <c r="K33" s="81"/>
+      <c r="K33" s="80"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
@@ -3773,26 +3767,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3807,13 +3781,33 @@
     <mergeCell ref="J3:K5"/>
     <mergeCell ref="J6:K9"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D10:D16"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,272 +3823,272 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="11" style="35" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="35" customWidth="1"/>
     <col min="5" max="254" width="9" style="35" customWidth="1"/>
     <col min="255" max="255" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="7.83203125" style="35"/>
+    <col min="256" max="16384" width="7.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="53" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="112">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="37.950000000000003" customHeight="1" thickBot="1">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="112"/>
+    </row>
+    <row r="4" spans="1:11" s="49" customFormat="1" ht="63" customHeight="1" thickBot="1">
+      <c r="A4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="112"/>
+    </row>
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="46.05" customHeight="1" thickBot="1">
+      <c r="A5" s="109"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="112"/>
+    </row>
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-    </row>
-    <row r="2" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="109">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="38" customHeight="1" thickBot="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="109"/>
-    </row>
-    <row r="4" spans="1:11" s="49" customFormat="1" ht="63" customHeight="1" thickBot="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="109"/>
-    </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="109"/>
-    </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="41" customHeight="1" thickBot="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="109"/>
-    </row>
-    <row r="7" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="109"/>
-    </row>
-    <row r="8" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" spans="1:11" s="49" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="112"/>
+    </row>
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="58.05" customHeight="1" thickBot="1">
+      <c r="A10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A11" s="109"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="112"/>
+    </row>
+    <row r="12" spans="1:11" ht="46.2" customHeight="1">
+      <c r="A12" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="119">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.2" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="120"/>
+    </row>
+    <row r="14" spans="1:11" ht="54.45" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="120"/>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="109"/>
-    </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="58" customHeight="1" thickBot="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="50" t="s">
+      <c r="D15" s="120"/>
+    </row>
+    <row r="16" spans="1:11" ht="36" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="109"/>
-    </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="109"/>
-    </row>
-    <row r="12" spans="1:11" ht="46.25" customHeight="1">
-      <c r="A12" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="116">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="49.25" customHeight="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="117"/>
-    </row>
-    <row r="14" spans="1:11" ht="54.5" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="117"/>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="117"/>
-    </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1">
-      <c r="A16" s="111"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="117"/>
-    </row>
-    <row r="17" spans="1:4" ht="48">
-      <c r="A17" s="111"/>
-      <c r="B17" s="114"/>
+      <c r="D16" s="120"/>
+    </row>
+    <row r="17" spans="1:4" ht="46.8">
+      <c r="A17" s="114"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="117"/>
-    </row>
-    <row r="18" spans="1:4" ht="45.5" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="114"/>
+        <v>53</v>
+      </c>
+      <c r="D17" s="120"/>
+    </row>
+    <row r="18" spans="1:4" ht="45.45" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="117"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.25" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="114"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="120"/>
+    </row>
+    <row r="19" spans="1:4" ht="49.2" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="117"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.25" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="114"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="120"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="117"/>
-    </row>
-    <row r="21" spans="1:4" ht="73.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="114"/>
+        <v>41</v>
+      </c>
+      <c r="D20" s="120"/>
+    </row>
+    <row r="21" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="117"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="120"/>
     </row>
     <row r="22" spans="1:4" ht="69" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="117"/>
+        <v>51</v>
+      </c>
+      <c r="D22" s="120"/>
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="115"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="109"/>
-    </row>
-    <row r="24" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="112"/>
+    </row>
+    <row r="24" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
       <c r="A24" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
       <c r="A25" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="37">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
       <c r="A26" s="40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
-      <c r="A27" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+    <row r="27" spans="1:4" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A27" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="36">
         <f>D2+D12+D24+D25+D26</f>
         <v>235000</v>

--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29447210-968C-4E13-B878-AAD2B6063681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF756E-7669-5F4C-8EA3-3D5165106095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
     <sheet name="材料费预算" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -428,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搅拌机灰沙比智能测算算法研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1342,6 +1346,10 @@
   </si>
   <si>
     <t>采场充填可视化平台设计与开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搅拌机灰砂比智能测算算法研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2128,13 +2136,139 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,133 +2280,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2741,52 +2749,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="48" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="19.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="A1" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2799,25 +2807,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2829,22 +2837,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="71">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="94"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="91"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2856,19 +2864,19 @@
         <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="91"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2880,23 +2888,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2908,22 +2916,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="71">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="94"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="80"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2935,19 +2943,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="80"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2959,19 +2967,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="80"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="71"/>
+      <c r="D9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="61"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2983,24 +2991,24 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>34</v>
+      <c r="B10" s="102" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>71</v>
+      <c r="D10" s="84" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
@@ -3013,24 +3021,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="105">
         <f>SUM(I10:I16)</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="78">
         <f>SUM(J10:J26)</f>
         <v>147.75</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="64"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
@@ -3043,18 +3051,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="64"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -3067,18 +3075,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31">
@@ -3091,18 +3099,18 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="64"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31">
@@ -3115,18 +3123,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="58"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="21" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
@@ -3139,16 +3147,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -3163,20 +3171,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>74</v>
+      <c r="D17" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
@@ -3189,21 +3197,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="105">
         <f>SUM(I17:I19)</f>
         <v>38</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="32">
@@ -3216,18 +3224,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="32">
@@ -3240,20 +3248,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A20" s="34"/>
-      <c r="B20" s="61"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>80</v>
+      <c r="D20" s="84" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="32">
@@ -3266,21 +3274,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="87">
         <f>SUM(I20:I23)</f>
         <v>30.4</v>
       </c>
-      <c r="K20" s="58"/>
+      <c r="K20" s="80"/>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A21" s="34"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="32">
@@ -3293,18 +3301,18 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="58"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="80"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A22" s="34"/>
-      <c r="B22" s="61"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="32">
@@ -3317,18 +3325,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="58"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A23" s="34"/>
-      <c r="B23" s="61"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="32">
@@ -3341,20 +3349,20 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="58"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A24" s="34"/>
-      <c r="B24" s="61"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="32">
@@ -3367,21 +3375,21 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="105">
         <f>SUM(I24:I26)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A25" s="34"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="32">
@@ -3394,18 +3402,18 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="80"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="62"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="32">
@@ -3418,23 +3426,23 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="82"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="93" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24">
         <v>3</v>
@@ -3446,22 +3454,22 @@
         <f t="shared" ref="I27" si="1">G27*H27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="83">
         <f>SUM(I27:I28)</f>
         <v>9</v>
       </c>
-      <c r="K27" s="79"/>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.55" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="82"/>
+      <c r="K27" s="83"/>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
+      <c r="A28" s="96"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
@@ -3475,29 +3483,29 @@
         <f>G28*H28</f>
         <v>6</v>
       </c>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="N28" s="20">
         <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
         <v>278.14999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" ht="35.4">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
+      <c r="A29" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="97" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -3505,62 +3513,62 @@
         <f>N28*0.149425</f>
         <v>41.562563749999995</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="77">
         <f>SUM(I29:I32)</f>
         <v>117.06256375</v>
       </c>
-      <c r="K29" s="57"/>
-    </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" ht="53.4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="102"/>
+      <c r="K29" s="78"/>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
+      <c r="A30" s="100"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="69"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19">
         <v>27</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="67"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="105"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="25"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28">
         <v>23.5</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="58"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="68"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>25</v>
@@ -3572,26 +3580,26 @@
         <f>G32*H32</f>
         <v>25</v>
       </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="80">
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="70">
         <f>SUM(N28,J29)</f>
         <v>395.21256374999996</v>
       </c>
-      <c r="K33" s="80"/>
+      <c r="K33" s="70"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
@@ -3767,6 +3775,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3782,32 +3815,7 @@
     <mergeCell ref="J6:K9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3823,32 +3831,32 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="11" style="35" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="35" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="35" customWidth="1"/>
     <col min="5" max="254" width="9" style="35" customWidth="1"/>
     <col min="255" max="255" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="7.77734375" style="35"/>
+    <col min="256" max="16384" width="7.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="53" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="108"/>
       <c r="G1" s="108"/>
@@ -3859,23 +3867,23 @@
     </row>
     <row r="2" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="112">
         <v>67000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="37.950000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="38" customHeight="1" thickBot="1">
       <c r="A3" s="109"/>
       <c r="B3" s="111"/>
       <c r="C3" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="112"/>
     </row>
@@ -3883,23 +3891,23 @@
       <c r="A4" s="109"/>
       <c r="B4" s="111"/>
       <c r="C4" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="112"/>
     </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" ht="46.05" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A5" s="109"/>
       <c r="B5" s="111"/>
       <c r="C5" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="112"/>
     </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="41" customHeight="1" thickBot="1">
       <c r="A6" s="109"/>
       <c r="B6" s="111"/>
       <c r="C6" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="112"/>
     </row>
@@ -3907,7 +3915,7 @@
       <c r="A7" s="109"/>
       <c r="B7" s="111"/>
       <c r="C7" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="112"/>
     </row>
@@ -3915,7 +3923,7 @@
       <c r="A8" s="109"/>
       <c r="B8" s="111"/>
       <c r="C8" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="112"/>
     </row>
@@ -3923,15 +3931,15 @@
       <c r="A9" s="109"/>
       <c r="B9" s="111"/>
       <c r="C9" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="112"/>
     </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="58.05" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="58" customHeight="1" thickBot="1">
       <c r="A10" s="109"/>
       <c r="B10" s="111"/>
       <c r="C10" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="112"/>
     </row>
@@ -3939,37 +3947,37 @@
       <c r="A11" s="109"/>
       <c r="B11" s="111"/>
       <c r="C11" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="112"/>
     </row>
-    <row r="12" spans="1:11" ht="46.2" customHeight="1">
+    <row r="12" spans="1:11" ht="46.25" customHeight="1">
       <c r="A12" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="119">
         <v>160000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="49.2" customHeight="1">
+    <row r="13" spans="1:11" ht="49.25" customHeight="1">
       <c r="A13" s="114"/>
       <c r="B13" s="117"/>
       <c r="C13" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="120"/>
     </row>
-    <row r="14" spans="1:11" ht="54.45" customHeight="1">
+    <row r="14" spans="1:11" ht="54.5" customHeight="1">
       <c r="A14" s="114"/>
       <c r="B14" s="117"/>
       <c r="C14" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="120"/>
     </row>
@@ -3977,7 +3985,7 @@
       <c r="A15" s="114"/>
       <c r="B15" s="117"/>
       <c r="C15" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="120"/>
     </row>
@@ -3985,47 +3993,47 @@
       <c r="A16" s="114"/>
       <c r="B16" s="117"/>
       <c r="C16" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="120"/>
     </row>
-    <row r="17" spans="1:4" ht="46.8">
+    <row r="17" spans="1:4" ht="48">
       <c r="A17" s="114"/>
       <c r="B17" s="117"/>
       <c r="C17" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="120"/>
     </row>
-    <row r="18" spans="1:4" ht="45.45" customHeight="1">
+    <row r="18" spans="1:4" ht="45.5" customHeight="1">
       <c r="A18" s="114"/>
       <c r="B18" s="117"/>
       <c r="C18" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="120"/>
     </row>
-    <row r="19" spans="1:4" ht="49.2" customHeight="1">
+    <row r="19" spans="1:4" ht="49.25" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="117"/>
       <c r="C19" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="120"/>
     </row>
-    <row r="20" spans="1:4" ht="31.2" customHeight="1">
+    <row r="20" spans="1:4" ht="31.25" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="117"/>
       <c r="C20" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="120"/>
     </row>
-    <row r="21" spans="1:4" ht="73.8" customHeight="1">
+    <row r="21" spans="1:4" ht="73.75" customHeight="1">
       <c r="A21" s="114"/>
       <c r="B21" s="117"/>
       <c r="C21" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="120"/>
     </row>
@@ -4033,7 +4041,7 @@
       <c r="A22" s="114"/>
       <c r="B22" s="117"/>
       <c r="C22" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="120"/>
     </row>
@@ -4041,51 +4049,51 @@
       <c r="A23" s="115"/>
       <c r="B23" s="118"/>
       <c r="C23" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="112"/>
     </row>
-    <row r="24" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+    <row r="24" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
       <c r="A24" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+    <row r="25" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
       <c r="A25" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="37">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" customHeight="1" thickBot="1">
+    <row r="26" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
       <c r="A26" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="40.200000000000003" customHeight="1" thickBot="1">
+    <row r="27" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
       <c r="A27" s="106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>

--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF756E-7669-5F4C-8EA3-3D5165106095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA78A40E-0D6A-3249-81FE-CEDE7FEA8579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
@@ -2136,6 +2136,96 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2175,9 +2265,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,93 +2281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2749,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2771,30 +2771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2807,25 +2807,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="97" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2837,22 +2837,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="100">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="68"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2864,19 +2864,19 @@
         <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="68"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2888,23 +2888,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="96" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2916,22 +2916,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="100">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="70"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2943,19 +2943,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="70"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2967,19 +2967,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="70"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2991,20 +2991,20 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="63" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3021,22 +3021,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="66">
         <f>SUM(I10:I16)</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="57">
         <f>SUM(J10:J26)</f>
         <v>147.75</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="85"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="17" t="s">
         <v>86</v>
       </c>
@@ -3051,16 +3051,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="80"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="85"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="17" t="s">
         <v>87</v>
       </c>
@@ -3075,16 +3075,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="85"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="30" t="s">
         <v>71</v>
       </c>
@@ -3099,16 +3099,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="80"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="85"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="30" t="s">
         <v>72</v>
       </c>
@@ -3123,16 +3123,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="80"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="85"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="21" t="s">
         <v>89</v>
       </c>
@@ -3147,16 +3147,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="80"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="85"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -3171,16 +3171,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="80"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="63" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="21" t="s">
@@ -3197,19 +3197,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="66">
         <f>SUM(I17:I19)</f>
         <v>38</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="85"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="21" t="s">
         <v>76</v>
       </c>
@@ -3224,16 +3224,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="80"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="85"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="21" t="s">
         <v>74</v>
       </c>
@@ -3248,16 +3248,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="80"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A20" s="34"/>
-      <c r="B20" s="103"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="63" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -3274,19 +3274,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="69">
         <f>SUM(I20:I23)</f>
         <v>30.4</v>
       </c>
-      <c r="K20" s="80"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A21" s="34"/>
-      <c r="B21" s="103"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="21" t="s">
         <v>78</v>
       </c>
@@ -3301,16 +3301,16 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="80"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A22" s="34"/>
-      <c r="B22" s="103"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="21" t="s">
         <v>77</v>
       </c>
@@ -3325,16 +3325,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="80"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A23" s="34"/>
-      <c r="B23" s="103"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="21" t="s">
         <v>84</v>
       </c>
@@ -3349,16 +3349,16 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="87"/>
-      <c r="K23" s="80"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A24" s="34"/>
-      <c r="B24" s="103"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="63" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -3375,19 +3375,19 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="66">
         <f>SUM(I24:I26)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="80"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A25" s="34"/>
-      <c r="B25" s="103"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="21" t="s">
         <v>82</v>
       </c>
@@ -3402,16 +3402,16 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="100"/>
-      <c r="K25" s="80"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="104"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="86"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="21" t="s">
         <v>83</v>
       </c>
@@ -3426,23 +3426,23 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="101"/>
-      <c r="K26" s="82"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="73" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24">
         <v>3</v>
@@ -3454,22 +3454,22 @@
         <f t="shared" ref="I27" si="1">G27*H27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="83">
+      <c r="J27" s="85">
         <f>SUM(I27:I28)</f>
         <v>9</v>
       </c>
-      <c r="K27" s="83"/>
+      <c r="K27" s="85"/>
     </row>
     <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
@@ -3483,27 +3483,27 @@
         <f>G28*H28</f>
         <v>6</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="N28" s="20">
         <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
         <v>278.14999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="87"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="27" t="s">
         <v>32</v>
       </c>
@@ -3513,22 +3513,22 @@
         <f>N28*0.149425</f>
         <v>41.562563749999995</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="82">
         <f>SUM(I29:I32)</f>
         <v>117.06256375</v>
       </c>
-      <c r="K29" s="78"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A30" s="100"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="87"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="25" t="s">
         <v>31</v>
       </c>
@@ -3537,38 +3537,38 @@
       <c r="I30" s="19">
         <v>27</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="100"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="89"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="25"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28">
         <v>23.5</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="101"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="87"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>25</v>
@@ -3580,26 +3580,26 @@
         <f>G32*H32</f>
         <v>25</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="70">
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="86">
         <f>SUM(N28,J29)</f>
         <v>395.21256374999996</v>
       </c>
-      <c r="K33" s="70"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
@@ -3775,31 +3775,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3816,6 +3791,31 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件3-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA78A40E-0D6A-3249-81FE-CEDE7FEA8579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC536ED-FC76-2741-81E5-0C6106485666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
@@ -2136,13 +2136,139 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2154,133 +2280,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2771,30 +2771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2807,25 +2807,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2837,22 +2837,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="100">
+      <c r="J3" s="71">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="101"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="98"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="90"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2864,19 +2864,19 @@
         <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2888,23 +2888,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2916,22 +2916,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="71">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="101"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="86"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="91"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2943,19 +2943,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="86"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2967,19 +2967,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="86"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2991,20 +2991,20 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="102" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="85" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3012,127 +3012,127 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="28">
         <v>2</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J10" s="66">
+        <v>16</v>
+      </c>
+      <c r="J10" s="105">
         <f>SUM(I10:I16)</f>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="K10" s="57">
+        <v>64.800000000000011</v>
+      </c>
+      <c r="K10" s="78">
         <f>SUM(J10:J26)</f>
-        <v>147.75</v>
+        <v>132.95000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="64"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="28">
         <v>1.6</v>
       </c>
       <c r="I11" s="33">
         <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="58"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="64"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="32">
         <v>1.6</v>
       </c>
       <c r="I12" s="33">
         <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="58"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J12" s="97"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="32">
         <v>1.6</v>
       </c>
       <c r="I13" s="33">
         <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="58"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J13" s="97"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="64"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="30" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="31">
         <v>2</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="58"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="97"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="21" t="s">
         <v>89</v>
       </c>
@@ -3147,16 +3147,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -3171,16 +3171,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="85" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="21" t="s">
@@ -3188,28 +3188,28 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="28">
         <v>2</v>
       </c>
       <c r="I17" s="33">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J17" s="66">
+        <v>12</v>
+      </c>
+      <c r="J17" s="105">
         <f>SUM(I17:I19)</f>
-        <v>38</v>
-      </c>
-      <c r="K17" s="58"/>
+        <v>36</v>
+      </c>
+      <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="21" t="s">
         <v>76</v>
       </c>
@@ -3224,16 +3224,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="21" t="s">
         <v>74</v>
       </c>
@@ -3248,16 +3248,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A20" s="34"/>
-      <c r="B20" s="61"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="85" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -3274,19 +3274,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="99">
         <f>SUM(I20:I23)</f>
-        <v>30.4</v>
-      </c>
-      <c r="K20" s="58"/>
+        <v>28.4</v>
+      </c>
+      <c r="K20" s="80"/>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A21" s="34"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="21" t="s">
         <v>78</v>
       </c>
@@ -3301,40 +3301,40 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="58"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="80"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A22" s="34"/>
-      <c r="B22" s="61"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="32">
         <v>2</v>
       </c>
       <c r="I22" s="33">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="58"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="99"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A23" s="34"/>
-      <c r="B23" s="61"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="21" t="s">
         <v>84</v>
       </c>
@@ -3349,16 +3349,16 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="58"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A24" s="34"/>
-      <c r="B24" s="61"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="85" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -3375,19 +3375,19 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="105">
         <f>SUM(I24:I26)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A25" s="34"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="21" t="s">
         <v>82</v>
       </c>
@@ -3402,16 +3402,16 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="80"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="62"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="21" t="s">
         <v>83</v>
       </c>
@@ -3426,23 +3426,23 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="82"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24">
         <v>3</v>
@@ -3454,22 +3454,22 @@
         <f t="shared" ref="I27" si="1">G27*H27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="83">
         <f>SUM(I27:I28)</f>
         <v>9</v>
       </c>
-      <c r="K27" s="85"/>
+      <c r="K27" s="83"/>
     </row>
     <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
@@ -3483,27 +3483,27 @@
         <f>G28*H28</f>
         <v>6</v>
       </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="N28" s="20">
         <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
-        <v>278.14999999999998</v>
+        <v>240.95000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="94" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="27" t="s">
         <v>32</v>
       </c>
@@ -3511,64 +3511,64 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19">
         <f>N28*0.149425</f>
-        <v>41.562563749999995</v>
-      </c>
-      <c r="J29" s="82">
+        <v>36.003953750000001</v>
+      </c>
+      <c r="J29" s="77">
         <f>SUM(I29:I32)</f>
-        <v>117.06256375</v>
-      </c>
-      <c r="K29" s="57"/>
+        <v>89.103953750000002</v>
+      </c>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A30" s="67"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="69"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19">
-        <v>27</v>
-      </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="58"/>
+        <v>13</v>
+      </c>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="67"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="81"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="25"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28">
-        <v>23.5</v>
-      </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="58"/>
+        <v>15.1</v>
+      </c>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="68"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>25</v>
@@ -3580,26 +3580,26 @@
         <f>G32*H32</f>
         <v>25</v>
       </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="86">
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="70">
         <f>SUM(N28,J29)</f>
-        <v>395.21256374999996</v>
-      </c>
-      <c r="K33" s="86"/>
+        <v>330.05395375000001</v>
+      </c>
+      <c r="K33" s="70"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
@@ -3775,6 +3775,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3791,31 +3816,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
